--- a/DATA_goal/Junction_Flooding_474.xlsx
+++ b/DATA_goal/Junction_Flooding_474.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44805.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44805.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44805.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44805.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_474.xlsx
+++ b/DATA_goal/Junction_Flooding_474.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44805.54861111111</v>
+        <v>45155.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44805.55555555555</v>
+        <v>45155.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.8</v>
+        <v>8.648</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.55</v>
+        <v>5.814</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.556</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.28</v>
+        <v>18.177</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.98</v>
+        <v>15.061</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.08</v>
+        <v>6.806</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.68</v>
+        <v>30.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>10.471</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>4.408</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.58</v>
+        <v>6.728</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.41</v>
+        <v>7.299</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.63</v>
+        <v>7.531</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.74</v>
+        <v>2.178</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.26</v>
+        <v>6.767</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.05</v>
+        <v>9.487</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.36</v>
+        <v>5.909</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.563</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.827</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.09</v>
+        <v>95.70699999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.66</v>
+        <v>19.109</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.08</v>
+        <v>6.247</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.02</v>
+        <v>12.514</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.94</v>
+        <v>6.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.755</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.1</v>
+        <v>14.004</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.84</v>
+        <v>5.517</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.87</v>
+        <v>5.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.21</v>
+        <v>5.947</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.29</v>
+        <v>7.548</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.38</v>
+        <v>27.439</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>3.401</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.61</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44805.5625</v>
+        <v>45155.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.89</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.34</v>
+        <v>17.235</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.562</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.13</v>
+        <v>50.797</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.91</v>
+        <v>42.026</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.61</v>
+        <v>18.526</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.63</v>
+        <v>69.193</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.16</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.36</v>
+        <v>12.591</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.23</v>
+        <v>18.895</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>20.447</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.92</v>
+        <v>21.449</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>5.917</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.75</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.96</v>
+        <v>26.173</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.99</v>
+        <v>15.528</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.87</v>
+        <v>1.146</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>1.019</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.17</v>
+        <v>273.086</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.32</v>
+        <v>51.456</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>34.537</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.57</v>
+        <v>18.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.52</v>
+        <v>2.305</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.5</v>
+        <v>33.881</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.73</v>
+        <v>13.365</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.85</v>
+        <v>15.695</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.67</v>
+        <v>21.411</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.55</v>
+        <v>62.472</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>9.568</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.87</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44805.56944444445</v>
+        <v>45155.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.78</v>
+        <v>2.88</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>2.61</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44805.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_474.xlsx
+++ b/DATA_goal/Junction_Flooding_474.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45155.50694444445</v>
+        <v>44805.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.06</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.922</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.233</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.559</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.17</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.148</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.258</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.923</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.884</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.312</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.215</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.154</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.794</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.046</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.401</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.061</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.797</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.462</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.342</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.257</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.657</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.391</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.393</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.943</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.713</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.198</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.441</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.895</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.246</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.286</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.825</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45155.51388888889</v>
+        <v>44805.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.648</v>
+        <v>2.798</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.814</v>
+        <v>1.551</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.556</v>
+        <v>1.305</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.177</v>
+        <v>6.275</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.061</v>
+        <v>3.982</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.806</v>
+        <v>2.083</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.22</v>
+        <v>12.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.471</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.408</v>
+        <v>1.297</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.728</v>
+        <v>1.583</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.299</v>
+        <v>2.413</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.531</v>
+        <v>2.628</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.178</v>
+        <v>0.741</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.767</v>
+        <v>2.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.487</v>
+        <v>3.048</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.909</v>
+        <v>2.365</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.563</v>
+        <v>1.343</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.827</v>
+        <v>0.622</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.70699999999999</v>
+        <v>27.087</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.109</v>
+        <v>6.661</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.247</v>
+        <v>2.082</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.514</v>
+        <v>4.018</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.73</v>
+        <v>1.938</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.755</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.004</v>
+        <v>6.095</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.517</v>
+        <v>1.839</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.1</v>
+        <v>1.868</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.947</v>
+        <v>2.209</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.548</v>
+        <v>2.288</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.439</v>
+        <v>12.384</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.401</v>
+        <v>0.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.81</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45155.52083333334</v>
+        <v>44805.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.541</v>
+        <v>0.886</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.235</v>
+        <v>0.339</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.562</v>
+        <v>0.784</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.797</v>
+        <v>2.131</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.026</v>
+        <v>0.914</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.526</v>
+        <v>0.613</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.193</v>
+        <v>5.635</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.505</v>
+        <v>1.163</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.591</v>
+        <v>0.359</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.895</v>
+        <v>0.233</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.447</v>
+        <v>0.797</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.449</v>
+        <v>0.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.917</v>
+        <v>0.257</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.422</v>
+        <v>0.752</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.173</v>
+        <v>0.957</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.528</v>
+        <v>0.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.146</v>
+        <v>0.869</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.019</v>
+        <v>0.355</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.086</v>
+        <v>4.166</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.456</v>
+        <v>2.318</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.004</v>
+        <v>0.694</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.537</v>
+        <v>1.245</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.36</v>
+        <v>0.574</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.305</v>
+        <v>0.519</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.881</v>
+        <v>2.503</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.02</v>
+        <v>0.613</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.365</v>
+        <v>0.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.695</v>
+        <v>0.846</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.411</v>
+        <v>0.673</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.472</v>
+        <v>5.554</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.568</v>
+        <v>0.238</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.259</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45155.52777777778</v>
+        <v>44805.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.88</v>
+        <v>3.776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.83</v>
+        <v>2.615</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.674</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.96</v>
+        <v>8.401999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.95</v>
+        <v>6.294</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.178</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.654</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.082</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.781</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.387</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.242000000000001</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.293</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.125999999999999</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44805.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>2.27</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="N6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2.61</v>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_474.xlsx
+++ b/DATA_goal/Junction_Flooding_474.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44805.54861111111</v>
+        <v>45155.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.315</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.452</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.548</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.929</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.407</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.081</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.367</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.452</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.022</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.134</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.887</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.618</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.279</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.513</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.993</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.077</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.709</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.411</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.071</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.298</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.945</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.697</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.196</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.398</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.994999999999999</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.384</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.078</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.175</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.636</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.015</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44805.55555555555</v>
+        <v>45155.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.798</v>
+        <v>8.648</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.551</v>
+        <v>5.814</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.305</v>
+        <v>1.556</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.275</v>
+        <v>18.177</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.982</v>
+        <v>15.061</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.083</v>
+        <v>6.806</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.68</v>
+        <v>30.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>10.471</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.297</v>
+        <v>4.408</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.583</v>
+        <v>6.728</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.413</v>
+        <v>7.299</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.628</v>
+        <v>7.531</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.741</v>
+        <v>2.178</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.256</v>
+        <v>6.767</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.048</v>
+        <v>9.487</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.365</v>
+        <v>5.909</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.343</v>
+        <v>1.563</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.622</v>
+        <v>0.827</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.087</v>
+        <v>95.70699999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.661</v>
+        <v>19.109</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.082</v>
+        <v>6.247</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.018</v>
+        <v>12.514</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.938</v>
+        <v>6.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.755</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.095</v>
+        <v>14.004</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.839</v>
+        <v>5.517</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.868</v>
+        <v>5.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.209</v>
+        <v>5.947</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.288</v>
+        <v>7.548</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.199</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.384</v>
+        <v>27.439</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>3.401</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.608</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44805.5625</v>
+        <v>45155.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.886</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.339</v>
+        <v>17.235</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>1.562</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>50.797</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>42.026</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>18.526</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>69.193</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>28.505</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>12.591</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>18.895</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>20.447</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>21.449</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>18.422</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>26.173</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>15.528</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>273.086</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>51.456</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>17.004</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>34.537</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2.305</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>33.881</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>13.365</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>15.695</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>21.411</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.784</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.635</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.163</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.166</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.245</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.503</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.747</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>5.554</v>
+        <v>62.472</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.238</v>
+        <v>9.568</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.874</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44805.56944444445</v>
+        <v>45155.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.776</v>
+        <v>2.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.615</v>
+        <v>1.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.674</v>
+        <v>0.65</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.401999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.294</v>
+        <v>4.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.904</v>
+        <v>2.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.178</v>
+        <v>16.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.654</v>
+        <v>3.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.875</v>
+        <v>1.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.694</v>
+        <v>2.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.333</v>
+        <v>2.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.958</v>
+        <v>0.75</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>2.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.082</v>
+        <v>3.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.781</v>
+        <v>2.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.344</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.387</v>
+        <v>27.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.21</v>
+        <v>4.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.775</v>
+        <v>2.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.711</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.835</v>
+        <v>7.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.452</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.293</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.694</v>
+        <v>2.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.388</v>
+        <v>2.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.125999999999999</v>
+        <v>15.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.456</v>
+        <v>1.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.469</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44805.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
